--- a/mall_analysis/Comp_Locations.xlsx
+++ b/mall_analysis/Comp_Locations.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\pyscripts\mall_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Dim" sheetId="3" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="206">
   <si>
     <t>Comp</t>
   </si>
@@ -229,18 +229,12 @@
     <t>Vincom Cà Mau</t>
   </si>
   <si>
-    <t>Sun Plaza</t>
-  </si>
-  <si>
     <t>BigC Thăng Long</t>
   </si>
   <si>
     <t>BigC Vĩnh Phúc</t>
   </si>
   <si>
-    <t>Vincom Hải Phòng</t>
-  </si>
-  <si>
     <t>BigC Hạ Long</t>
   </si>
   <si>
@@ -388,26 +382,269 @@
     <t>Brand</t>
   </si>
   <si>
-    <t>Aeon</t>
-  </si>
-  <si>
-    <t>BigC</t>
-  </si>
-  <si>
-    <t>Vincom</t>
-  </si>
-  <si>
-    <t>Lotte Mart</t>
-  </si>
-  <si>
     <t>Sun Plaza Thuỵ Khuê</t>
+  </si>
+  <si>
+    <t>Thuận An</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>Bình Tân</t>
+  </si>
+  <si>
+    <t>Hà Đông</t>
+  </si>
+  <si>
+    <t>Long Biên</t>
+  </si>
+  <si>
+    <t>Tân Phú</t>
+  </si>
+  <si>
+    <t>Đà Lạt</t>
+  </si>
+  <si>
+    <t>Hạ Long</t>
+  </si>
+  <si>
+    <t>Nam Định</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>Gò Vấp</t>
+  </si>
+  <si>
+    <t>An Giang</t>
+  </si>
+  <si>
+    <t>Bắc Kạn</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>HCMC</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>Lâm Đồng</t>
+  </si>
+  <si>
+    <t>Quảng Ninh</t>
+  </si>
+  <si>
+    <t>Tam Kỳ</t>
+  </si>
+  <si>
+    <t>Quảng Nam</t>
+  </si>
+  <si>
+    <t>Cầu Giấy</t>
+  </si>
+  <si>
+    <t>Thanh Hoá</t>
+  </si>
+  <si>
+    <t>Vinh</t>
+  </si>
+  <si>
+    <t>Nghệ An</t>
+  </si>
+  <si>
+    <t>Bình Xuyên</t>
+  </si>
+  <si>
+    <t>Quận 7</t>
+  </si>
+  <si>
+    <t>Quận 1</t>
+  </si>
+  <si>
+    <t>Quận 2</t>
+  </si>
+  <si>
+    <t>Thủ Đức</t>
+  </si>
+  <si>
+    <t>Hoàn Kiếm</t>
+  </si>
+  <si>
+    <t>Ba Đình</t>
+  </si>
+  <si>
+    <t>Quận 11</t>
+  </si>
+  <si>
+    <t>Mê Linh</t>
+  </si>
+  <si>
+    <t>Quận 5</t>
+  </si>
+  <si>
+    <t>Nam Từ Liêm</t>
+  </si>
+  <si>
+    <t>Quận 10</t>
+  </si>
+  <si>
+    <t>Long Xuyên</t>
+  </si>
+  <si>
+    <t>Bảo Lộc</t>
+  </si>
+  <si>
+    <t>Biên Hoà</t>
+  </si>
+  <si>
+    <t>Cà Mau</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Đồng Tháp</t>
+  </si>
+  <si>
+    <t>Hà Nam</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>Hải Phòng</t>
+  </si>
+  <si>
+    <t>Kiên Giang</t>
+  </si>
+  <si>
+    <t>Hai Bà Trưng</t>
+  </si>
+  <si>
+    <t>Bắc Từ Liêm</t>
+  </si>
+  <si>
+    <t>Đồng Nai</t>
+  </si>
+  <si>
+    <t>Buôn Ma Thuột</t>
+  </si>
+  <si>
+    <t>ĐakLak</t>
+  </si>
+  <si>
+    <t>Sơn Trà</t>
+  </si>
+  <si>
+    <t>Cao Lãnh</t>
+  </si>
+  <si>
+    <t>Phủ Lý</t>
+  </si>
+  <si>
+    <t>Vincom Lê Thánh Tông - Hải Phòng</t>
+  </si>
+  <si>
+    <t>Ngô Quyền</t>
+  </si>
+  <si>
+    <t>Hoà Bình</t>
+  </si>
+  <si>
+    <t>Huế</t>
+  </si>
+  <si>
+    <t>Thừa Thiên - Huế</t>
+  </si>
+  <si>
+    <t>Rạch Giá</t>
+  </si>
+  <si>
+    <t>Lạng Sơn</t>
+  </si>
+  <si>
+    <t>Long An</t>
+  </si>
+  <si>
+    <t>Bắc Ninh</t>
+  </si>
+  <si>
+    <t>Nha Trang</t>
+  </si>
+  <si>
+    <t>Phan Rang</t>
+  </si>
+  <si>
+    <t>Sóc Trăng</t>
+  </si>
+  <si>
+    <t>Sơn La</t>
+  </si>
+  <si>
+    <t>Tây Ninh</t>
+  </si>
+  <si>
+    <t>Thái Nguyên</t>
+  </si>
+  <si>
+    <t>Trà Vinh</t>
+  </si>
+  <si>
+    <t>Kon Tum</t>
+  </si>
+  <si>
+    <t>Bình Thạnh</t>
+  </si>
+  <si>
+    <t>Quận 9</t>
+  </si>
+  <si>
+    <t>Tân An</t>
+  </si>
+  <si>
+    <t>Đống Đa</t>
+  </si>
+  <si>
+    <t>Phan Thiết</t>
+  </si>
+  <si>
+    <t>Ninh Thuận</t>
+  </si>
+  <si>
+    <t>Thanh Xuân</t>
+  </si>
+  <si>
+    <t>Tuy Hoà</t>
+  </si>
+  <si>
+    <t>Phú Yên</t>
+  </si>
+  <si>
+    <t>Tuyên Quang</t>
+  </si>
+  <si>
+    <t>Vĩnh Long</t>
+  </si>
+  <si>
+    <t>Ninh Kiều</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>Yên Bái</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -421,6 +658,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -460,15 +710,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,15 +743,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F1048574" totalsRowShown="0">
-  <autoFilter ref="A1:F1048574"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G1048573" totalsRowShown="0">
+  <autoFilter ref="A1:G1048573"/>
+  <sortState ref="A2:G77">
+    <sortCondition ref="B1:B1048573"/>
+  </sortState>
+  <tableColumns count="7">
     <tableColumn id="1" name="Location"/>
     <tableColumn id="2" name="Likes"/>
     <tableColumn id="3" name="Promotion"/>
     <tableColumn id="4" name="Special"/>
     <tableColumn id="5" name="Parent"/>
     <tableColumn id="6" name="Brand"/>
+    <tableColumn id="7" name="Province"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -778,65 +1038,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4">
-        <v>566069</v>
+      <c r="B2" s="7">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
+      <c r="F2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B3">
-        <v>314041</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -845,958 +1111,1103 @@
         <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>1000</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32">
+        <v>2180</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33">
+        <v>2970</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="9">
+        <v>2982</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35">
+        <v>3202</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36">
+        <v>3280</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37">
+        <v>3713</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="3">
+        <v>4353</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="3">
+        <v>7050</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" t="s">
+        <v>144</v>
+      </c>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="3">
+        <v>13945</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="3">
+        <v>14905</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>41191</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="3">
+        <v>48133</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="3">
+        <v>58633</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="9">
+        <v>70138</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="9">
+        <v>78402</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="3">
+        <v>85889</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="3">
+        <v>87324</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
+      <c r="B49" s="3">
         <v>88536</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <v>565099</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>536083</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7">
-        <v>3202</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8">
-        <v>2970</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9">
-        <v>3280</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10">
-        <v>3713</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11">
-        <v>14905</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12">
-        <v>4353</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13">
-        <v>7050</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14">
-        <v>2180</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>387591</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>94396</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>87324</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18">
-        <v>48133</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19">
-        <v>41191</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20">
-        <v>13945</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21">
-        <v>91242</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22">
-        <v>364165</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23">
-        <v>306365</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="3">
-        <v>306365</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="3">
-        <v>306365</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26">
-        <v>2982</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>197474</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28">
-        <v>70138</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29">
-        <v>78402</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30">
-        <v>386632</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32">
-        <v>102682</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33">
-        <v>1000</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35">
-        <v>85889</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36">
-        <v>58633</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37">
-        <v>919203</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="3">
-        <v>919203</v>
-      </c>
       <c r="C49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
       </c>
       <c r="E49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="3">
-        <v>919203</v>
+      <c r="G49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="9">
+        <v>91242</v>
       </c>
       <c r="C50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
       </c>
       <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B51" s="3">
-        <v>919203</v>
+        <v>94396</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
@@ -1805,41 +2216,47 @@
         <v>1</v>
       </c>
       <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B52" s="3">
-        <v>919203</v>
+        <v>102682</v>
       </c>
       <c r="C52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
       <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="3">
-        <v>919203</v>
+        <v>0</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="9">
+        <v>197474</v>
       </c>
       <c r="C53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
@@ -1847,456 +2264,542 @@
       <c r="E53" s="3">
         <v>1</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="3">
-        <v>919203</v>
+      <c r="F53" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="9">
+        <v>306365</v>
       </c>
       <c r="C54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="3">
-        <v>919203</v>
+        <v>131</v>
+      </c>
+      <c r="G54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="9">
+        <v>306365</v>
       </c>
       <c r="C55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="9">
+        <v>306365</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="3">
+        <v>314041</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="9">
+        <v>364165</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="3">
+        <v>386632</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="3">
+        <v>387591</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="3">
+        <v>536083</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="3">
+        <v>565099</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="8">
+        <v>566069</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="5">
+        <f xml:space="preserve"> 919203/14</f>
+        <v>65657.357142857145</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" s="5">
+        <f t="shared" ref="B65:B77" si="0" xml:space="preserve"> 919203/14</f>
+        <v>65657.357142857145</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="5">
+        <f t="shared" si="0"/>
+        <v>65657.357142857145</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="5">
+        <f t="shared" si="0"/>
+        <v>65657.357142857145</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B68" s="5">
+        <f t="shared" si="0"/>
+        <v>65657.357142857145</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="B69" s="5">
+        <f t="shared" si="0"/>
+        <v>65657.357142857145</v>
+      </c>
+      <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C59" s="3">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="B70" s="5">
+        <f t="shared" si="0"/>
+        <v>65657.357142857145</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C60" s="3">
-        <v>1</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C61" s="3">
-        <v>1</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="B71" s="5">
+        <f t="shared" si="0"/>
+        <v>65657.357142857145</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C62" s="3">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
-      <c r="D63" s="3">
-        <v>1</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1</v>
-      </c>
-      <c r="D64" s="3">
-        <v>1</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="B72" s="5">
+        <f t="shared" si="0"/>
+        <v>65657.357142857145</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C65" s="3">
-        <v>1</v>
-      </c>
-      <c r="D65" s="3">
-        <v>1</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C66" s="3">
-        <v>1</v>
-      </c>
-      <c r="D66" s="3">
-        <v>1</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C67" s="3">
-        <v>1</v>
-      </c>
-      <c r="D67" s="3">
-        <v>1</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B68" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C68" s="3">
-        <v>1</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1</v>
-      </c>
-      <c r="D69" s="3">
-        <v>1</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="B73" s="5">
+        <f t="shared" si="0"/>
+        <v>65657.357142857145</v>
+      </c>
+      <c r="C73" s="3">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G73" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3">
-        <v>1</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="B74" s="5">
+        <f t="shared" si="0"/>
+        <v>65657.357142857145</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G74" t="s">
+        <v>135</v>
+      </c>
+      <c r="L74" s="5">
+        <f xml:space="preserve"> 919203/14</f>
+        <v>65657.357142857145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B71" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C71" s="3">
-        <v>1</v>
-      </c>
-      <c r="D71" s="3">
-        <v>1</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C72" s="3">
-        <v>1</v>
-      </c>
-      <c r="D72" s="3">
-        <v>1</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="B75" s="5">
+        <f t="shared" si="0"/>
+        <v>65657.357142857145</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C73" s="3">
-        <v>1</v>
-      </c>
-      <c r="D73" s="3">
-        <v>1</v>
-      </c>
-      <c r="E73" s="3">
-        <v>1</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C74" s="3">
-        <v>1</v>
-      </c>
-      <c r="D74" s="3">
-        <v>1</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C75" s="3">
-        <v>1</v>
-      </c>
-      <c r="D75" s="3">
-        <v>1</v>
-      </c>
-      <c r="E75" s="3">
-        <v>1</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" s="3">
-        <v>919203</v>
+      <c r="B76" s="5">
+        <f t="shared" si="0"/>
+        <v>65657.357142857145</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -2308,15 +2811,19 @@
         <v>1</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B77" s="3">
-        <v>919203</v>
+        <v>141</v>
+      </c>
+      <c r="G76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="5">
+        <f t="shared" si="0"/>
+        <v>65657.357142857145</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
@@ -2328,27 +2835,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" s="3">
-        <v>919203</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1</v>
-      </c>
-      <c r="D78" s="3">
-        <v>1</v>
-      </c>
-      <c r="E78" s="3">
-        <v>1</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>124</v>
+        <v>203</v>
+      </c>
+      <c r="G77" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2363,8 +2853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,7 +2956,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2511,10 +3001,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2543,7 +3033,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>16</v>
@@ -2762,7 +3252,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2770,7 +3260,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2778,7 +3268,7 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2786,7 +3276,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2794,7 +3284,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2802,7 +3292,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2810,7 +3300,7 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2818,7 +3308,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2826,7 +3316,7 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2834,7 +3324,7 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2842,7 +3332,7 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2850,7 +3340,7 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2866,7 +3356,7 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2874,7 +3364,7 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2882,7 +3372,7 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2890,7 +3380,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2898,7 +3388,7 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2906,7 +3396,7 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2914,7 +3404,7 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2922,7 +3412,7 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2938,7 +3428,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2946,7 +3436,7 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2962,7 +3452,7 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2970,7 +3460,7 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2978,7 +3468,7 @@
         <v>5</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2986,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2994,7 +3484,7 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3002,7 +3492,7 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3010,7 +3500,7 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3018,7 +3508,7 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3026,7 +3516,7 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3034,7 +3524,7 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3042,7 +3532,7 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3239,7 +3729,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
         <v>28</v>
@@ -3247,15 +3737,15 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>18</v>
@@ -3263,7 +3753,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B112" t="s">
         <v>48</v>
@@ -3295,10 +3785,10 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3319,18 +3809,18 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B120" t="s">
         <v>101</v>
-      </c>
-      <c r="B120" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3354,7 +3844,7 @@
         <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3415,7 +3905,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B131" t="s">
         <v>50</v>
@@ -3423,7 +3913,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B132" t="s">
         <v>25</v>
@@ -3487,7 +3977,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>30</v>
@@ -3495,7 +3985,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
@@ -3503,7 +3993,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B142" t="s">
         <v>9</v>
@@ -3546,7 +4036,7 @@
         <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">

--- a/mall_analysis/Comp_Locations.xlsx
+++ b/mall_analysis/Comp_Locations.xlsx
@@ -379,9 +379,6 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>Brand</t>
-  </si>
-  <si>
     <t>Sun Plaza Thuỵ Khuê</t>
   </si>
   <si>
@@ -638,6 +635,9 @@
   </si>
   <si>
     <t>Yên Bái</t>
+  </si>
+  <si>
+    <t>Districts</t>
   </si>
 </sst>
 </file>
@@ -754,7 +754,7 @@
     <tableColumn id="3" name="Promotion"/>
     <tableColumn id="4" name="Special"/>
     <tableColumn id="5" name="Parent"/>
-    <tableColumn id="6" name="Brand"/>
+    <tableColumn id="6" name="Districts"/>
     <tableColumn id="7" name="Province"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,15 +1068,15 @@
         <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="7">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1114,10 +1114,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,10 +1137,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1160,10 +1160,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1183,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1206,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" t="s">
         <v>170</v>
-      </c>
-      <c r="G7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1229,10 +1229,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1252,10 +1252,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1275,10 +1275,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1298,10 +1298,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1321,10 +1321,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1344,10 +1344,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" t="s">
         <v>178</v>
-      </c>
-      <c r="G13" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1367,10 +1367,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1390,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1413,10 +1413,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1436,10 +1436,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1459,10 +1459,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1482,10 +1482,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1505,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1528,10 +1528,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1551,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1574,10 +1574,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1597,10 +1597,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1620,10 +1620,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1643,10 +1643,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
         <v>199</v>
-      </c>
-      <c r="G26" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1666,10 +1666,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1689,10 +1689,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1712,10 +1712,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1758,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1781,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1850,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -1873,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -1896,10 +1896,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" t="s">
         <v>139</v>
-      </c>
-      <c r="G37" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -1919,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" t="s">
         <v>143</v>
-      </c>
-      <c r="G39" t="s">
-        <v>144</v>
       </c>
       <c r="M39" s="6"/>
     </row>
@@ -1966,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -1989,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2035,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2081,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2104,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2127,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2173,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2219,10 +2219,10 @@
         <v>0</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2242,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2265,10 +2265,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2288,10 +2288,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2311,10 +2311,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2334,10 +2334,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2357,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2426,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2449,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2472,10 +2472,10 @@
         <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2495,10 +2495,10 @@
         <v>0</v>
       </c>
       <c r="F63" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G63" t="s">
         <v>121</v>
-      </c>
-      <c r="G63" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2519,10 +2519,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2567,10 +2567,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -2591,15 +2591,15 @@
         <v>1</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B68" s="5">
         <f t="shared" si="0"/>
@@ -2615,10 +2615,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -2639,10 +2639,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -2687,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -2711,10 +2711,10 @@
         <v>1</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -2735,10 +2735,10 @@
         <v>1</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -2759,15 +2759,12 @@
         <v>1</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G74" t="s">
-        <v>135</v>
-      </c>
-      <c r="L74" s="5">
-        <f xml:space="preserve"> 919203/14</f>
-        <v>65657.357142857145</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -2787,10 +2784,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G75" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -2811,10 +2808,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -2835,10 +2832,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G77" t="s">
         <v>203</v>
-      </c>
-      <c r="G77" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3380,7 +3377,7 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3844,7 +3841,7 @@
         <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">

--- a/mall_analysis/Comp_Locations.xlsx
+++ b/mall_analysis/Comp_Locations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="205">
   <si>
     <t>Comp</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>KimsFullHouse</t>
-  </si>
-  <si>
-    <t>Mê Linh Palaza</t>
   </si>
   <si>
     <t>Nhà Xinh</t>
@@ -710,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -723,8 +720,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,7 +744,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G1048573" totalsRowShown="0">
   <autoFilter ref="A1:G1048573"/>
   <sortState ref="A2:G77">
-    <sortCondition ref="B1:B1048573"/>
+    <sortCondition ref="A1:A1048573"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Location"/>
@@ -764,8 +762,8 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B1048576" totalsRowShown="0">
   <autoFilter ref="A1:B1048576"/>
-  <sortState ref="A2:B152">
-    <sortCondition ref="A1:A1048576"/>
+  <sortState ref="A2:B1048576">
+    <sortCondition ref="B1:B1048576"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" name="Comp"/>
@@ -1041,7 +1039,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,56 +1051,56 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
         <v>117</v>
       </c>
-      <c r="B1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" t="s">
-        <v>118</v>
-      </c>
       <c r="F1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9">
+        <v>566069</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>314041</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1111,44 +1109,44 @@
         <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>88536</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>565099</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1157,21 +1155,21 @@
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>536083</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1180,205 +1178,205 @@
         <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3202</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2970</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3280</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="G9" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>3713</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>14905</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>4353</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>7050</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>387591</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1387,21 +1385,21 @@
         <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>190</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>94396</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1410,44 +1408,44 @@
         <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>87324</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>193</v>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="G17" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>48133</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1456,21 +1454,21 @@
         <v>1</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>182</v>
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>41191</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1479,67 +1477,67 @@
         <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>183</v>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>13945</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>184</v>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="B21" s="8">
+        <v>91242</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="G21" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B22" s="8">
+        <v>364165</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1548,90 +1546,93 @@
         <v>1</v>
       </c>
       <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>186</v>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="G22" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="B23" s="8">
+        <f>306365/3</f>
+        <v>102121.66666666667</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="G23" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" ref="B24:B25" si="0">306365/3</f>
+        <v>102121.66666666667</v>
       </c>
       <c r="C24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="G24" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="0"/>
+        <v>102121.66666666667</v>
       </c>
       <c r="C25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2982</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1640,24 +1641,24 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>198</v>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="G26" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="B27" s="8">
+        <v>197474</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1665,19 +1666,19 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>200</v>
+      <c r="F27" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="G27" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B28" s="8">
+        <v>70138</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1686,21 +1687,21 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>201</v>
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="G28" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B29" s="8">
+        <v>78402</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1709,44 +1710,44 @@
         <v>1</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>204</v>
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="G29" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>1000</v>
+        <v>386632</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1000</v>
+        <v>118</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1758,41 +1759,41 @@
         <v>0</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="G31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>2180</v>
+        <v>102682</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>144</v>
+      <c r="F32" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="G32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B33">
-        <v>2970</v>
+        <v>1000</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1803,193 +1804,195 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>127</v>
+      <c r="F33" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="9">
-        <v>2982</v>
+        <v>100</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1000</v>
       </c>
       <c r="C34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="B35">
-        <v>3202</v>
+        <v>85889</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>126</v>
+      <c r="F35" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="G35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>3280</v>
+        <v>58633</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>128</v>
+      <c r="F36" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="G36" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B37">
-        <v>3713</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="G37" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="3">
-        <v>4353</v>
+        <v>7</v>
+      </c>
+      <c r="B38" s="10">
+        <f xml:space="preserve"> 919203/14</f>
+        <v>65657.357142857145</v>
       </c>
       <c r="C38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="G38" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B39" s="3">
-        <v>7050</v>
+        <v>0</v>
       </c>
       <c r="C39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G39" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="M39" s="6"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="3">
-        <v>13945</v>
+        <v>107</v>
+      </c>
+      <c r="B40" s="10">
+        <f xml:space="preserve"> 919203/14</f>
+        <v>65657.357142857145</v>
       </c>
       <c r="C40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>149</v>
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="G40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B41" s="3">
-        <v>14905</v>
+        <v>0</v>
       </c>
       <c r="C41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G41" t="s">
         <v>135</v>
@@ -1997,10 +2000,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B42" s="3">
-        <v>41191</v>
+        <v>0</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -2009,21 +2012,21 @@
         <v>1</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>148</v>
+        <v>1</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B43" s="3">
-        <v>48133</v>
+        <v>0</v>
       </c>
       <c r="C43" s="3">
         <v>1</v>
@@ -2032,44 +2035,45 @@
         <v>1</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>147</v>
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B44" s="3">
-        <v>58633</v>
+        <v>0</v>
       </c>
       <c r="C44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>155</v>
+        <v>1</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="9">
-        <v>70138</v>
+      <c r="B45" s="10">
+        <f xml:space="preserve"> 919203/14</f>
+        <v>65657.357142857145</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -2078,21 +2082,22 @@
         <v>1</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>146</v>
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="G45" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="9">
-        <v>78402</v>
+        <v>44</v>
+      </c>
+      <c r="B46" s="10">
+        <f xml:space="preserve"> 919203/14</f>
+        <v>65657.357142857145</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -2101,21 +2106,21 @@
         <v>1</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>124</v>
+        <v>1</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="G46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B47" s="3">
-        <v>85889</v>
+        <v>0</v>
       </c>
       <c r="C47" s="3">
         <v>1</v>
@@ -2124,90 +2129,90 @@
         <v>1</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>149</v>
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G47" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B48" s="3">
-        <v>87324</v>
+        <v>0</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>130</v>
+        <v>1</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="G48" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B49" s="3">
-        <v>88536</v>
+        <v>0</v>
       </c>
       <c r="C49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="G49" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="9">
-        <v>91242</v>
+        <v>95</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0</v>
       </c>
       <c r="C50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
       </c>
       <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>140</v>
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="G50" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B51" s="3">
-        <v>94396</v>
+        <v>0</v>
       </c>
       <c r="C51" s="3">
         <v>1</v>
@@ -2216,47 +2221,47 @@
         <v>1</v>
       </c>
       <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>146</v>
+        <v>1</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="G51" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="B52" s="3">
-        <v>102682</v>
+        <v>0</v>
       </c>
       <c r="C52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>154</v>
+        <v>1</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="G52" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="9">
-        <v>197474</v>
+        <v>92</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0</v>
       </c>
       <c r="C53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
@@ -2264,88 +2269,91 @@
       <c r="E53" s="3">
         <v>1</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>153</v>
+      <c r="F53" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="G53" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="9">
-        <v>306365</v>
+        <v>53</v>
+      </c>
+      <c r="B54" s="10">
+        <f xml:space="preserve"> 919203/14</f>
+        <v>65657.357142857145</v>
       </c>
       <c r="C54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="3">
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="G54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="9">
-        <v>306365</v>
+        <v>89</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0</v>
       </c>
       <c r="C55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="3">
         <v>1</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="G55" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="9">
-        <v>306365</v>
+      <c r="A56" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" s="10">
+        <f xml:space="preserve"> 919203/14</f>
+        <v>65657.357142857145</v>
       </c>
       <c r="C56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="3">
         <v>1</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="G56" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="3">
-        <v>314041</v>
+        <v>65</v>
+      </c>
+      <c r="B57" s="10">
+        <f xml:space="preserve"> 919203/14</f>
+        <v>65657.357142857145</v>
       </c>
       <c r="C57" s="3">
         <v>1</v>
@@ -2354,21 +2362,21 @@
         <v>1</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="G57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="9">
-        <v>364165</v>
+        <v>87</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -2377,21 +2385,22 @@
         <v>1</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="G58" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" s="3">
-        <v>386632</v>
+        <v>24</v>
+      </c>
+      <c r="B59" s="10">
+        <f xml:space="preserve"> 919203/14</f>
+        <v>65657.357142857145</v>
       </c>
       <c r="C59" s="3">
         <v>1</v>
@@ -2400,10 +2409,10 @@
         <v>1</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>145</v>
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="G59" t="s">
         <v>134</v>
@@ -2411,10 +2420,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B60" s="3">
-        <v>387591</v>
+        <v>0</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -2423,21 +2432,22 @@
         <v>1</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>145</v>
+        <v>1</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="G60" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="3">
-        <v>536083</v>
+        <v>48</v>
+      </c>
+      <c r="B61" s="10">
+        <f xml:space="preserve"> 919203/14</f>
+        <v>65657.357142857145</v>
       </c>
       <c r="C61" s="3">
         <v>1</v>
@@ -2446,10 +2456,10 @@
         <v>1</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="G61" t="s">
         <v>134</v>
@@ -2457,10 +2467,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B62" s="3">
-        <v>565099</v>
+        <v>0</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -2469,21 +2479,21 @@
         <v>1</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="G62" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="8">
-        <v>566069</v>
+        <v>94</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
@@ -2492,18 +2502,18 @@
         <v>1</v>
       </c>
       <c r="E63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="G63" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B64" s="5">
         <f xml:space="preserve"> 919203/14</f>
@@ -2519,19 +2529,18 @@
         <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="G64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B65" s="5">
-        <f t="shared" ref="B65:B77" si="0" xml:space="preserve"> 919203/14</f>
-        <v>65657.357142857145</v>
+        <v>91</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0</v>
       </c>
       <c r="C65" s="3">
         <v>1</v>
@@ -2543,19 +2552,18 @@
         <v>1</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G65" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" s="5">
-        <f t="shared" si="0"/>
-        <v>65657.357142857145</v>
+        <v>72</v>
+      </c>
+      <c r="B66" s="7">
+        <v>0</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -2567,19 +2575,18 @@
         <v>1</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="G66" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B67" s="5">
-        <f t="shared" si="0"/>
-        <v>65657.357142857145</v>
+        <v>90</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0</v>
       </c>
       <c r="C67" s="3">
         <v>1</v>
@@ -2591,19 +2598,18 @@
         <v>1</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="G67" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B68" s="5">
-        <f t="shared" si="0"/>
-        <v>65657.357142857145</v>
+      <c r="A68" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="7">
+        <v>0</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -2615,18 +2621,18 @@
         <v>1</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="G68" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B69" s="5">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> 919203/14</f>
         <v>65657.357142857145</v>
       </c>
       <c r="C69" s="3">
@@ -2639,18 +2645,18 @@
         <v>1</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="G69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B70" s="5">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> 919203/14</f>
         <v>65657.357142857145</v>
       </c>
       <c r="C70" s="3">
@@ -2663,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="G70" t="s">
         <v>134</v>
@@ -2671,11 +2677,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" s="5">
-        <f t="shared" si="0"/>
-        <v>65657.357142857145</v>
+        <v>83</v>
+      </c>
+      <c r="B71" s="7">
+        <v>0</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
@@ -2687,18 +2692,18 @@
         <v>1</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="G71" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B72" s="5">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> 919203/14</f>
         <v>65657.357142857145</v>
       </c>
       <c r="C72" s="3">
@@ -2711,19 +2716,18 @@
         <v>1</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="G72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" s="5">
-        <f t="shared" si="0"/>
-        <v>65657.357142857145</v>
+        <v>85</v>
+      </c>
+      <c r="B73" s="7">
+        <v>0</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
@@ -2738,16 +2742,15 @@
         <v>197</v>
       </c>
       <c r="G73" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" s="5">
-        <f t="shared" si="0"/>
-        <v>65657.357142857145</v>
+        <v>78</v>
+      </c>
+      <c r="B74" s="7">
+        <v>0</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -2759,20 +2762,19 @@
         <v>1</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="G74" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="L74" s="5"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B75" s="5">
-        <f t="shared" si="0"/>
-        <v>65657.357142857145</v>
+        <v>84</v>
+      </c>
+      <c r="B75" s="7">
+        <v>0</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
@@ -2784,18 +2786,18 @@
         <v>1</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="G75" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="B76" s="5">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> 919203/14</f>
         <v>65657.357142857145</v>
       </c>
       <c r="C76" s="3">
@@ -2808,19 +2810,18 @@
         <v>1</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="G76" t="s">
-        <v>135</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" s="5">
-        <f t="shared" si="0"/>
-        <v>65657.357142857145</v>
+        <v>74</v>
+      </c>
+      <c r="B77" s="7">
+        <v>0</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
@@ -2832,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G77" t="s">
         <v>203</v>
@@ -2850,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2870,15 +2871,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -2886,15 +2887,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -2902,223 +2903,223 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>29</v>
@@ -3126,706 +3127,706 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B114" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B120" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3833,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3841,239 +3842,239 @@
         <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B127" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B128" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="B129" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="B131" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B136" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B137" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B145" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B147" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B148" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B151" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B152" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
